--- a/SchedulingData/static6/pso/scheduling1_10.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.90000000000001</v>
+        <v>63.42</v>
       </c>
       <c r="E2" t="n">
-        <v>25.2</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.04000000000001</v>
+        <v>105.64</v>
       </c>
       <c r="E3" t="n">
-        <v>25.776</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>105.64</v>
       </c>
       <c r="D4" t="n">
-        <v>89.42</v>
+        <v>168.44</v>
       </c>
       <c r="E4" t="n">
-        <v>25.728</v>
+        <v>21.936</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79.90000000000001</v>
+        <v>168.44</v>
       </c>
       <c r="D5" t="n">
-        <v>129.84</v>
+        <v>210.56</v>
       </c>
       <c r="E5" t="n">
-        <v>21.336</v>
+        <v>19.344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89.42</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>167.58</v>
+        <v>52.94</v>
       </c>
       <c r="E6" t="n">
-        <v>22.032</v>
+        <v>26.876</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>167.58</v>
+        <v>52.94</v>
       </c>
       <c r="D7" t="n">
-        <v>218.02</v>
+        <v>109.74</v>
       </c>
       <c r="E7" t="n">
-        <v>19.128</v>
+        <v>21.836</v>
       </c>
     </row>
     <row r="8">
@@ -580,131 +580,131 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>69.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>117.48</v>
+        <v>32.08</v>
       </c>
       <c r="E8" t="n">
-        <v>22.552</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>129.84</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>184.14</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>17.536</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>184.14</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>261.74</v>
+        <v>117.84</v>
       </c>
       <c r="E10" t="n">
-        <v>13.856</v>
+        <v>23.016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>261.74</v>
+        <v>117.84</v>
       </c>
       <c r="D11" t="n">
-        <v>317.28</v>
+        <v>166.1</v>
       </c>
       <c r="E11" t="n">
-        <v>9.432</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>32.08</v>
       </c>
       <c r="D12" t="n">
-        <v>77.66</v>
+        <v>103.58</v>
       </c>
       <c r="E12" t="n">
-        <v>24.904</v>
+        <v>23.932</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>218.02</v>
+        <v>103.58</v>
       </c>
       <c r="D13" t="n">
-        <v>283.76</v>
+        <v>152.98</v>
       </c>
       <c r="E13" t="n">
-        <v>15.644</v>
+        <v>21.612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>117.48</v>
+        <v>109.74</v>
       </c>
       <c r="D14" t="n">
-        <v>183.98</v>
+        <v>163.28</v>
       </c>
       <c r="E14" t="n">
-        <v>18.992</v>
+        <v>17.612</v>
       </c>
     </row>
     <row r="15">
@@ -713,112 +713,112 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>283.76</v>
+        <v>210.56</v>
       </c>
       <c r="D15" t="n">
-        <v>332.78</v>
+        <v>259.24</v>
       </c>
       <c r="E15" t="n">
-        <v>12.872</v>
+        <v>16.096</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>332.78</v>
+        <v>166.1</v>
       </c>
       <c r="D16" t="n">
-        <v>382.04</v>
+        <v>219.5</v>
       </c>
       <c r="E16" t="n">
-        <v>9.076000000000001</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>382.04</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>460.06</v>
+        <v>35.08</v>
       </c>
       <c r="E17" t="n">
-        <v>5.884</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>317.28</v>
+        <v>152.98</v>
       </c>
       <c r="D18" t="n">
-        <v>384.62</v>
+        <v>214.62</v>
       </c>
       <c r="E18" t="n">
-        <v>6.308</v>
+        <v>18.588</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>35.08</v>
       </c>
       <c r="D19" t="n">
-        <v>78.88</v>
+        <v>84.38</v>
       </c>
       <c r="E19" t="n">
-        <v>26.752</v>
+        <v>23.392</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>163.28</v>
       </c>
       <c r="D20" t="n">
-        <v>77.84</v>
+        <v>217.64</v>
       </c>
       <c r="E20" t="n">
-        <v>25.856</v>
+        <v>13.816</v>
       </c>
     </row>
     <row r="21">
@@ -827,22 +827,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>77.84</v>
+        <v>219.5</v>
       </c>
       <c r="D21" t="n">
-        <v>156.06</v>
+        <v>305.8</v>
       </c>
       <c r="E21" t="n">
-        <v>21.644</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77.66</v>
+        <v>214.62</v>
       </c>
       <c r="D22" t="n">
-        <v>143.56</v>
+        <v>300.12</v>
       </c>
       <c r="E22" t="n">
-        <v>19.444</v>
+        <v>13.128</v>
       </c>
     </row>
     <row r="23">
@@ -865,93 +865,93 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>143.56</v>
+        <v>84.38</v>
       </c>
       <c r="D23" t="n">
-        <v>178.06</v>
+        <v>151.54</v>
       </c>
       <c r="E23" t="n">
-        <v>17.124</v>
+        <v>18.296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>178.06</v>
+        <v>217.64</v>
       </c>
       <c r="D24" t="n">
-        <v>212.06</v>
+        <v>265.14</v>
       </c>
       <c r="E24" t="n">
-        <v>14.364</v>
+        <v>10.696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>460.06</v>
+        <v>151.54</v>
       </c>
       <c r="D25" t="n">
-        <v>526.36</v>
+        <v>213.44</v>
       </c>
       <c r="E25" t="n">
-        <v>2.344</v>
+        <v>14.216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>212.06</v>
+        <v>63.42</v>
       </c>
       <c r="D26" t="n">
-        <v>259.96</v>
+        <v>107</v>
       </c>
       <c r="E26" t="n">
-        <v>10.704</v>
+        <v>24.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>384.62</v>
+        <v>213.44</v>
       </c>
       <c r="D27" t="n">
-        <v>448.72</v>
+        <v>261.28</v>
       </c>
       <c r="E27" t="n">
-        <v>1.028</v>
+        <v>10.072</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>448.72</v>
+        <v>265.14</v>
       </c>
       <c r="D28" t="n">
-        <v>533.26</v>
+        <v>357.74</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>7.016</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>533.26</v>
+        <v>259.24</v>
       </c>
       <c r="D29" t="n">
-        <v>585.78</v>
+        <v>326.96</v>
       </c>
       <c r="E29" t="n">
-        <v>27.408</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="30">
@@ -998,36 +998,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>183.98</v>
+        <v>300.12</v>
       </c>
       <c r="D30" t="n">
-        <v>246.08</v>
+        <v>362.06</v>
       </c>
       <c r="E30" t="n">
-        <v>14.912</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>156.06</v>
+        <v>326.96</v>
       </c>
       <c r="D31" t="n">
-        <v>208.14</v>
+        <v>372.3</v>
       </c>
       <c r="E31" t="n">
-        <v>18.056</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -1036,188 +1036,188 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>526.36</v>
+        <v>372.3</v>
       </c>
       <c r="D32" t="n">
-        <v>588.67</v>
+        <v>428.54</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>4.036</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>588.67</v>
+        <v>261.28</v>
       </c>
       <c r="D33" t="n">
-        <v>628.75</v>
+        <v>335.08</v>
       </c>
       <c r="E33" t="n">
-        <v>27.192</v>
+        <v>6.772</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>246.08</v>
+        <v>357.74</v>
       </c>
       <c r="D34" t="n">
-        <v>323.8</v>
+        <v>444.7</v>
       </c>
       <c r="E34" t="n">
-        <v>9.76</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>78.88</v>
+        <v>444.7</v>
       </c>
       <c r="D35" t="n">
-        <v>150.94</v>
+        <v>522.5599999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>21.656</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>208.14</v>
+        <v>107</v>
       </c>
       <c r="D36" t="n">
-        <v>256.58</v>
+        <v>169.18</v>
       </c>
       <c r="E36" t="n">
-        <v>14.832</v>
+        <v>20.492</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>150.94</v>
+        <v>428.54</v>
       </c>
       <c r="D37" t="n">
-        <v>232.64</v>
+        <v>504.08</v>
       </c>
       <c r="E37" t="n">
-        <v>17.096</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>323.8</v>
+        <v>504.08</v>
       </c>
       <c r="D38" t="n">
-        <v>379.88</v>
+        <v>569.98</v>
       </c>
       <c r="E38" t="n">
-        <v>7.252</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>232.64</v>
+        <v>362.06</v>
       </c>
       <c r="D39" t="n">
-        <v>280.14</v>
+        <v>436.06</v>
       </c>
       <c r="E39" t="n">
-        <v>13.976</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>259.96</v>
+        <v>169.18</v>
       </c>
       <c r="D40" t="n">
-        <v>323.04</v>
+        <v>258.1</v>
       </c>
       <c r="E40" t="n">
-        <v>7.976</v>
+        <v>16.22</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>256.58</v>
+        <v>335.08</v>
       </c>
       <c r="D41" t="n">
-        <v>330.62</v>
+        <v>381.88</v>
       </c>
       <c r="E41" t="n">
-        <v>10.568</v>
+        <v>3.232</v>
       </c>
     </row>
     <row r="42">
@@ -1226,112 +1226,112 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>379.88</v>
+        <v>436.06</v>
       </c>
       <c r="D42" t="n">
-        <v>451.38</v>
+        <v>498.96</v>
       </c>
       <c r="E42" t="n">
-        <v>2.212</v>
+        <v>1.084</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>323.04</v>
+        <v>498.96</v>
       </c>
       <c r="D43" t="n">
-        <v>397.6</v>
+        <v>563.79</v>
       </c>
       <c r="E43" t="n">
-        <v>3.14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>280.14</v>
+        <v>381.88</v>
       </c>
       <c r="D44" t="n">
-        <v>333.96</v>
+        <v>442.42</v>
       </c>
       <c r="E44" t="n">
-        <v>11.204</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>451.38</v>
+        <v>442.42</v>
       </c>
       <c r="D45" t="n">
-        <v>528.66</v>
+        <v>527.38</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>25.164</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>528.66</v>
+        <v>258.1</v>
       </c>
       <c r="D46" t="n">
-        <v>611</v>
+        <v>316.9</v>
       </c>
       <c r="E46" t="n">
-        <v>26.416</v>
+        <v>13.46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>585.78</v>
+        <v>563.79</v>
       </c>
       <c r="D47" t="n">
-        <v>651.92</v>
+        <v>608.41</v>
       </c>
       <c r="E47" t="n">
-        <v>23.404</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="48">
@@ -1340,74 +1340,74 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>330.62</v>
+        <v>305.8</v>
       </c>
       <c r="D48" t="n">
-        <v>384.72</v>
+        <v>399.6</v>
       </c>
       <c r="E48" t="n">
-        <v>7.268</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>384.72</v>
+        <v>316.9</v>
       </c>
       <c r="D49" t="n">
-        <v>476.92</v>
+        <v>346.5</v>
       </c>
       <c r="E49" t="n">
-        <v>3.628</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>333.96</v>
+        <v>522.5599999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>392.26</v>
+        <v>586.5</v>
       </c>
       <c r="E50" t="n">
-        <v>7.484</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>611</v>
+        <v>346.5</v>
       </c>
       <c r="D51" t="n">
-        <v>657.4400000000001</v>
+        <v>395.04</v>
       </c>
       <c r="E51" t="n">
-        <v>23.392</v>
+        <v>7.916</v>
       </c>
     </row>
     <row r="52">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>476.92</v>
+        <v>399.6</v>
       </c>
       <c r="D52" t="n">
-        <v>516.42</v>
+        <v>464.44</v>
       </c>
       <c r="E52" t="n">
-        <v>1.308</v>
+        <v>1.896</v>
       </c>
     </row>
     <row r="53">
@@ -1435,17 +1435,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>516.42</v>
+        <v>464.44</v>
       </c>
       <c r="D53" t="n">
-        <v>625.1</v>
+        <v>547.45</v>
       </c>
       <c r="E53" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond53</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>395.04</v>
+      </c>
+      <c r="D54" t="n">
+        <v>473.78</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.652</v>
       </c>
     </row>
   </sheetData>
